--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/2 CUENTAS POR COBRAR/4 INTEGRACION DE DEUDORES.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/2 CUENTAS POR COBRAR/4 INTEGRACION DE DEUDORES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\TAREA 1 ACTUALIZAR PT\1 PAPELES DE TRABAJO AUDITORIA\5 PRUEBAS SUSTANTIVAS\2 CUENTAS POR COBRAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\2 CUENTAS POR COBRAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410241D8-0D81-45BE-B952-0F14B00F36D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Elaboro:</t>
   </si>
@@ -129,12 +124,6 @@
     <t>Puesto:</t>
   </si>
   <si>
-    <t xml:space="preserve">    Auditoria Financiera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Entidad XXXXXXX</t>
-  </si>
-  <si>
     <t xml:space="preserve">Por favor, copia y pega la integración auxiliar de la cuenta contable en esta cédula. A continuación, concilia el saldo final con el saldo según </t>
   </si>
   <si>
@@ -156,20 +145,29 @@
     <t>La falta de documentación o la existencia de documentos falsificados pueden ser indicativos de fraude.</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                     Del 01 de enero al 31 de diciembre del 2024</t>
-  </si>
-  <si>
     <t>B-3</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                            INTEGRACION DE CUENTAS DEUDORES DIVERSOS</t>
+    <t>Auditoria Financiera</t>
+  </si>
+  <si>
+    <t>INTEGRACION DE CUENTAS DEUDORES DIVERSOS</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Logo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,12 +178,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -203,13 +195,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -337,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -345,59 +330,56 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,67 +413,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="876300" y="590550"/>
-          <a:ext cx="923925" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-GT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -504,7 +425,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="25 Conector recto"/>
+        <xdr:cNvPr id="3" name="25 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -552,7 +479,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="26 Conector recto"/>
+        <xdr:cNvPr id="4" name="26 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -600,7 +533,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="29 Conector recto"/>
+        <xdr:cNvPr id="5" name="29 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -648,7 +587,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="30 Conector recto"/>
+        <xdr:cNvPr id="6" name="30 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -696,7 +641,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="31 Triángulo isósceles"/>
+        <xdr:cNvPr id="7" name="31 Triángulo isósceles">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -741,7 +692,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CuadroTexto 7"/>
+        <xdr:cNvPr id="8" name="CuadroTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -850,7 +807,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CuadroTexto 8"/>
+        <xdr:cNvPr id="9" name="CuadroTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -900,15 +863,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B17:G25" headerRowDxfId="0">
-  <autoFilter ref="B17:G25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B17:G25" headerRowDxfId="0">
+  <autoFilter ref="B17:G25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Código" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Descripción"/>
-    <tableColumn id="3" name="Fecha"/>
-    <tableColumn id="4" name="Monto"/>
-    <tableColumn id="5" name="Debe"/>
-    <tableColumn id="6" name="Haber"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripción"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fecha"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Monto"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Debe"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Haber"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1210,7 +1173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1225,11 +1188,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K18" sqref="J18:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,96 +1207,100 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I4" s="13" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="28"/>
+      <c r="H5" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="10"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
       <c r="H6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="10"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
       <c r="H7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1453,170 +1420,177 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="29" t="s">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
-        <v>39</v>
+      <c r="B31" s="24" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="29" t="s">
-        <v>37</v>
+      <c r="B32" s="24" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="14"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="14"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="19"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="14"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="19"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="14"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="22"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="17"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="22"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="17"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="24" t="s">
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="26" t="s">
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="26" t="s">
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B3:B6"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="65" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
